--- a/milestones.xlsx
+++ b/milestones.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>Modules</t>
   </si>
@@ -279,6 +279,11 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First step, account info
+second step ask browse or complete profile
+</t>
   </si>
 </sst>
 </file>
@@ -347,6 +352,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -355,11 +365,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D1:G69"/>
+  <dimension ref="D1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -666,32 +671,33 @@
     <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="67.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:7">
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="4:8">
+      <c r="E1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="4:7">
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="4" spans="4:7" s="5" customFormat="1">
-      <c r="E4" s="6" t="s">
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="4:8">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="4" spans="4:8" s="2" customFormat="1">
+      <c r="E4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="4:7">
+    <row r="5" spans="4:8">
       <c r="D5">
         <v>1</v>
       </c>
@@ -699,7 +705,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="4:7">
+    <row r="6" spans="4:8">
       <c r="E6">
         <v>1</v>
       </c>
@@ -710,7 +716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="4:7" ht="30">
+    <row r="7" spans="4:8" ht="90">
       <c r="E7">
         <v>2</v>
       </c>
@@ -720,8 +726,11 @@
       <c r="G7" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8" spans="4:7">
+      <c r="H7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8">
       <c r="E8">
         <v>3</v>
       </c>
@@ -732,7 +741,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="4:7" ht="30">
+    <row r="9" spans="4:8" ht="18" customHeight="1">
       <c r="E9">
         <v>4</v>
       </c>
@@ -743,7 +752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="4:7" ht="14.25" customHeight="1">
+    <row r="10" spans="4:8" ht="14.25" customHeight="1">
       <c r="E10">
         <v>5</v>
       </c>
@@ -754,7 +763,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="4:7" ht="14.25" customHeight="1">
+    <row r="11" spans="4:8" ht="14.25" customHeight="1">
       <c r="E11">
         <v>6</v>
       </c>
@@ -765,7 +774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="4:7">
+    <row r="12" spans="4:8">
       <c r="D12">
         <v>2</v>
       </c>
@@ -773,7 +782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="4:7" ht="45">
+    <row r="13" spans="4:8" ht="45">
       <c r="E13">
         <v>1</v>
       </c>
@@ -784,7 +793,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="4:7" ht="30">
+    <row r="15" spans="4:8" ht="30">
       <c r="E15">
         <v>2</v>
       </c>
@@ -795,7 +804,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="4:7">
+    <row r="16" spans="4:8">
       <c r="E16">
         <v>3</v>
       </c>
@@ -865,7 +874,7 @@
       <c r="F26" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -876,7 +885,7 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="G27" s="2"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="4:7">
       <c r="E28">
@@ -885,7 +894,7 @@
       <c r="F28" t="s">
         <v>10</v>
       </c>
-      <c r="G28" s="2"/>
+      <c r="G28" s="5"/>
     </row>
     <row r="29" spans="4:7">
       <c r="E29">
@@ -894,7 +903,7 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" s="2"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="32" spans="4:7">
       <c r="D32">
@@ -965,7 +974,7 @@
       <c r="F42" t="s">
         <v>65</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="6" t="s">
         <v>85</v>
       </c>
     </row>
@@ -976,7 +985,7 @@
       <c r="F43" t="s">
         <v>66</v>
       </c>
-      <c r="G43" s="3"/>
+      <c r="G43" s="6"/>
     </row>
     <row r="44" spans="4:7">
       <c r="D44">
@@ -1146,7 +1155,7 @@
       <c r="F65" t="s">
         <v>31</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G65" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -1157,7 +1166,7 @@
       <c r="F66" t="s">
         <v>32</v>
       </c>
-      <c r="G66" s="3"/>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" spans="5:7" ht="30">
       <c r="E67">
